--- a/brainstorm-2nd-presentation.xlsx
+++ b/brainstorm-2nd-presentation.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dle/Documents/VSCode Repo/Fault-Detection-SECOM-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF5EA493-2ECC-C343-B7E4-DDA8BE53944C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827670E8-470A-5946-BEB6-E1BD171D2DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7740" yWindow="500" windowWidth="27640" windowHeight="16940" xr2:uid="{CEB4D2B5-B7BF-E94B-8BB5-68DC61C39B62}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="functions" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
   <si>
     <t>Feature Selection</t>
   </si>
@@ -102,6 +102,102 @@
   </si>
   <si>
     <t>Pipeline + Cross Validation + GridSearch</t>
+  </si>
+  <si>
+    <t>function(x,y,params)</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Functionize</t>
+  </si>
+  <si>
+    <t>read csv</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>Remove duplicated columns</t>
+  </si>
+  <si>
+    <t>splitting</t>
+  </si>
+  <si>
+    <t>Outlier with 3s rules</t>
+  </si>
+  <si>
+    <t>Duygu</t>
+  </si>
+  <si>
+    <t>Imputation missing values</t>
+  </si>
+  <si>
+    <t>Aras &amp; Deep</t>
+  </si>
+  <si>
+    <t>just need to scale before apply</t>
+  </si>
+  <si>
+    <t>if your function needs scaling then include it but rememebr to return unscaled df at the end</t>
+  </si>
+  <si>
+    <t>MICE</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>Hina &amp; Duygu</t>
+  </si>
+  <si>
+    <t>Baruta / RFE</t>
+  </si>
+  <si>
+    <t>Complex</t>
+  </si>
+  <si>
+    <t>Lasso</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>Information gain</t>
+  </si>
+  <si>
+    <t>Balancing</t>
+  </si>
+  <si>
+    <t>SMOTE</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>ROSE</t>
+  </si>
+  <si>
+    <t>ADYSYN</t>
+  </si>
+  <si>
+    <t>Model fitting</t>
+  </si>
+  <si>
+    <t>Random Forest</t>
+  </si>
+  <si>
+    <t>SVM</t>
+  </si>
+  <si>
+    <t>Model scores</t>
+  </si>
+  <si>
+    <t>try different combinations of methods then print model scores</t>
   </si>
 </sst>
 </file>
@@ -132,7 +228,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,6 +250,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -185,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -193,6 +295,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,10 +610,260 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBACF63E-028B-BC48-9483-E32BFB67B8D1}">
+  <dimension ref="A1:E32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="33" customWidth="1"/>
+    <col min="3" max="3" width="29.5" customWidth="1"/>
+    <col min="4" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468EC755-DB70-2942-8EC7-781FA984B88A}">
   <dimension ref="B1:J24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="125" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A12" zoomScale="125" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -779,24 +1133,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2EA4234-D777-ED4A-981B-F05BC9098AF1}">
-  <dimension ref="A4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>